--- a/raw/Freight_History.xlsx
+++ b/raw/Freight_History.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\shipping\shipping\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78236BC4-7145-4D49-BF44-8C5DE0D0E07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B898DBA8-1D94-4A64-9BB1-1B57BACD6AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{000D0A22-61B7-4933-BB1C-63EDDE60CA83}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{000D0A22-61B7-4933-BB1C-63EDDE60CA83}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="80">
   <si>
     <t>YYYY-MM</t>
   </si>
@@ -259,6 +259,15 @@
   </si>
   <si>
     <t>Volume(lbs)</t>
+  </si>
+  <si>
+    <t>2023-10</t>
+  </si>
+  <si>
+    <t>2023-11</t>
+  </si>
+  <si>
+    <t>2023-12</t>
   </si>
 </sst>
 </file>
@@ -269,7 +278,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,6 +312,11 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -312,7 +326,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -335,12 +349,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -363,6 +410,19 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -678,19 +738,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4DE2E06-5003-4F9E-8292-E95ABFBB61B4}">
-  <dimension ref="A1:D277"/>
+  <dimension ref="A1:D288"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <pane ySplit="1" topLeftCell="A268" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D282" sqref="D282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -4569,6 +4629,160 @@
       </c>
       <c r="D277" s="6">
         <v>977</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A278" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C278" s="4">
+        <v>677452.14</v>
+      </c>
+      <c r="D278" s="9">
+        <v>8739080</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A279" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C279" s="4">
+        <v>987880.99</v>
+      </c>
+      <c r="D279" s="9">
+        <v>13022623.869999999</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A280" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C280" s="4">
+        <v>146480.78</v>
+      </c>
+      <c r="D280" s="9">
+        <v>1999048</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A281" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C281" s="4">
+        <v>2119.89</v>
+      </c>
+      <c r="D281" s="9">
+        <v>125926</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A282" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C282" s="10">
+        <v>763126.51</v>
+      </c>
+      <c r="D282" s="9">
+        <v>8167422</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A283" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C283" s="10">
+        <v>1267404.67</v>
+      </c>
+      <c r="D283" s="9">
+        <v>11282296.83</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A284" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C284" s="11">
+        <v>82211.839999999997</v>
+      </c>
+      <c r="D284" s="9">
+        <v>1050772</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A285" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C285" s="12">
+        <v>1259.3499999999999</v>
+      </c>
+      <c r="D285" s="9">
+        <v>82812</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A286" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B286" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C286" s="14">
+        <v>661646.5</v>
+      </c>
+      <c r="D286" s="4">
+        <v>11902031</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A287" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B287" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C287" s="14">
+        <v>1230400.54</v>
+      </c>
+      <c r="D287" s="4">
+        <v>15814611</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A288" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B288" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C288" s="14">
+        <v>115854.99</v>
+      </c>
+      <c r="D288" s="4">
+        <v>1577283</v>
       </c>
     </row>
   </sheetData>
